--- a/电子签约平台/上上签-e签宝比较.xlsx
+++ b/电子签约平台/上上签-e签宝比较.xlsx
@@ -594,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成一份合同签署的整个流程(以3方共6个章为例)，在单进程模式下，大概需要7s,并发200的时候，我这边测试了下，大概是10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -729,59 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他们这边采用的是并行直接处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求的方式，可以横向扩展服务器，来满足高并发的需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并且开发者的本地服务也分担了部分性能压力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无(不过听龙波说，已经想提供了?）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,7 +902,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>他们给方案是让我们每次每次接口不要使用多页签章，都用单页签章，但是这样效率又下降了，多次之后，效率方面相当于和上上签差不多了,这个最终确认他们想改</t>
+    <t>他们给方案是让我们每次每次接口不要使用多页签章，都用单页签章，但是这样效率又下降了，多次之后，效率方面相当于和上上签差不多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一份合同签署的整个流程(以3方共6个章为例)，在单进程模式下，大概需要10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单进程模式下两者相差不多，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签宝这边目前不提供批量传递参数的接口，所以网络交互会更多，增加不稳定性</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1049,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1387,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1524,16 +1510,16 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="42.75">
+      <c r="F19" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="28.5">
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -1541,13 +1527,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -1555,22 +1541,22 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="41.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="36" customHeight="1">
@@ -1578,10 +1564,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="11"/>
     </row>
